--- a/biology/Médecine/Gianfranco_Cecchin/Gianfranco_Cecchin.xlsx
+++ b/biology/Médecine/Gianfranco_Cecchin/Gianfranco_Cecchin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gianfranco Cecchin, né le 22 août 1932 à Nogarole Vicentino (Vénétie) et mort le 2 février 2004 à Brescia, est un psychiatre italien, fondateur avec Mara Selvini Palazzoli, Luigi Boscolo et Giuliana Prata, du mouvement de thérapie familiale systémique Approche de Milan.
 Le groupe de Milan commence son activité en 1971 sous l'influence des travaux issus de l'École de Palo Alto, en particulier ceux de Paul Watzlawick. En 1981, après le départ de Mara Selvini Palazzoli et Giuliana Prata, Cecchin fonde avec Luigi Boscolo le Centre de Thérapie Familiale de Milan.
@@ -512,7 +524,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Livres
 (it) Avec Mara Selvini Palazzoli, Luigi Boscolo et Giuliana Prata, Paradosso e Controparadosso. Un nuovo modello nella terapia della famiglia a transazione schizofrenica, Feltrinelli, Milano, 1975. (Nouvelle édition en 2003 chez Raffaello Cortina avec une nouvelle préface de Pietro Barbetta)
@@ -554,7 +568,9 @@
           <t>Liens</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Notices d'autorité : VIAF ISNI IdRef LCCN GND Italie Pologne Israël NUKAT Canada Norvège Tchéquie Grèce WorldCat 
 In ricordo di Gianfranco Cecchin
